--- a/output_data/101_motor_loc_1.xlsx
+++ b/output_data/101_motor_loc_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\MSc-neuroscience\auditory-experiment-code\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99EE660-4E16-4450-A733-2F30BFCB9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CBF692-4447-45B4-880B-ED42027D5723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{AFCE5D7D-FD0D-4C3F-B67C-25D79F1A7C2C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{BCEFA1A6-C407-4575-BF1B-E75C2682624A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>run_num</t>
   </si>
@@ -68,6 +57,9 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>err_wrong_notes</t>
   </si>
 </sst>
 </file>
@@ -418,7 +410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AD6D6E-088E-4568-A951-3C745C8DABE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB11E8F6-7F48-4151-A3AB-16E2ABF1349F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -430,7 +422,8 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -464,16 +457,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.1619022000000001</v>
+        <v>4.2123825000000004</v>
       </c>
       <c r="D2">
-        <v>2.792789</v>
+        <v>3.2314581999999996</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -484,16 +480,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>14.996454</v>
+        <v>16.563223300000001</v>
       </c>
       <c r="D3">
-        <v>2.3288723000000005</v>
+        <v>2.5980123000000006</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,16 +503,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>25.092517300000001</v>
+        <v>25.815391200000001</v>
       </c>
       <c r="D4">
-        <v>999</v>
+        <v>2.5309495999999996</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -524,16 +526,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>37.149201699999999</v>
+        <v>36.942140700000003</v>
       </c>
       <c r="D5">
-        <v>3.295441799999999</v>
+        <v>2.0818348999999969</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0487E1D0-85CA-46D9-A0D9-A8624E5530FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FFA255-BE62-4738-9D11-F3A726EDDD50}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -554,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E673ABAC-0EE2-4BA2-AD7B-880B3D539058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABEBDE-7C48-447B-9B40-6783B3B63BF4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
